--- a/public/bundles/ican/excel/schedule.xlsx
+++ b/public/bundles/ican/excel/schedule.xlsx
@@ -325,9 +325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1369800</xdr:colOff>
+      <xdr:colOff>1369440</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -341,7 +341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="237960" y="47520"/>
-          <a:ext cx="1131840" cy="1152000"/>
+          <a:ext cx="1131480" cy="1151640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,15 +536,16 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="D:J"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K:K"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="46.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="46.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="1" width="24.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="59.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="29.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.5"/>
   </cols>
